--- a/REGULAR/ONT/PASCUA, LORENA.xlsx
+++ b/REGULAR/ONT/PASCUA, LORENA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11505" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="206">
   <si>
     <t>PERIOD</t>
   </si>
@@ -643,6 +643,15 @@
   </si>
   <si>
     <t>UT(0-0-56)</t>
+  </si>
+  <si>
+    <t>10/16-18/2023</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>11/13,15/2023</t>
   </si>
 </sst>
 </file>
@@ -1511,7 +1520,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1554,7 +1563,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1618,7 +1627,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1678,7 +1687,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1744,7 +1753,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1807,7 +1816,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1905,7 +1914,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1964,7 +1973,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2029,7 +2038,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2072,7 +2081,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2147,7 +2156,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2333,7 +2342,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2399,7 +2408,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,7 +2466,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +2532,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2579,7 +2588,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2654,7 +2663,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2697,7 +2706,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2763,7 +2772,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2819,7 +2828,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2917,7 +2926,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2980,7 +2989,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3046,7 +3055,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K439" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K441" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3424,12 +3433,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K439"/>
+  <dimension ref="A2:K441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2160" topLeftCell="A357" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B377" sqref="B377"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2160" topLeftCell="A363" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="K378" sqref="K378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3590,7 +3599,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>175.267</v>
+        <v>170.517</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3600,7 +3609,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>294.20799999999997</v>
+        <v>295.45799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6512,7 +6521,7 @@
       <c r="H139" s="39"/>
       <c r="I139" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>294.20799999999997</v>
+        <v>295.45799999999997</v>
       </c>
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
@@ -11765,27 +11774,37 @@
       <c r="A375" s="40">
         <v>45200</v>
       </c>
-      <c r="B375" s="20"/>
-      <c r="C375" s="13"/>
-      <c r="D375" s="39"/>
+      <c r="B375" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C375" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D375" s="39">
+        <v>1</v>
+      </c>
       <c r="E375" s="9"/>
       <c r="F375" s="20"/>
-      <c r="G375" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G375" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H375" s="39"/>
       <c r="I375" s="9"/>
       <c r="J375" s="11"/>
-      <c r="K375" s="20"/>
+      <c r="K375" s="49">
+        <v>45198</v>
+      </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A376" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B376" s="20"/>
+      <c r="A376" s="40"/>
+      <c r="B376" s="20" t="s">
+        <v>169</v>
+      </c>
       <c r="C376" s="13"/>
-      <c r="D376" s="39"/>
+      <c r="D376" s="39">
+        <v>3</v>
+      </c>
       <c r="E376" s="9"/>
       <c r="F376" s="20"/>
       <c r="G376" s="13" t="str">
@@ -11795,13 +11814,17 @@
       <c r="H376" s="39"/>
       <c r="I376" s="9"/>
       <c r="J376" s="11"/>
-      <c r="K376" s="20"/>
+      <c r="K376" s="49" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B377" s="20"/>
+        <v>45231</v>
+      </c>
+      <c r="B377" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C377" s="13"/>
       <c r="D377" s="39"/>
       <c r="E377" s="9"/>
@@ -11813,13 +11836,19 @@
       <c r="H377" s="39"/>
       <c r="I377" s="9"/>
       <c r="J377" s="11"/>
-      <c r="K377" s="20"/>
+      <c r="K377" s="49">
+        <v>45244</v>
+      </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
-      <c r="B378" s="20"/>
+      <c r="B378" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C378" s="13"/>
-      <c r="D378" s="39"/>
+      <c r="D378" s="39">
+        <v>2</v>
+      </c>
       <c r="E378" s="9"/>
       <c r="F378" s="20"/>
       <c r="G378" s="13" t="str">
@@ -11829,10 +11858,14 @@
       <c r="H378" s="39"/>
       <c r="I378" s="9"/>
       <c r="J378" s="11"/>
-      <c r="K378" s="20"/>
+      <c r="K378" s="49" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A379" s="40"/>
+      <c r="A379" s="40">
+        <v>45261</v>
+      </c>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
       <c r="D379" s="39"/>
@@ -12792,20 +12825,52 @@
       <c r="K438" s="20"/>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A439" s="41"/>
-      <c r="B439" s="15"/>
-      <c r="C439" s="42"/>
-      <c r="D439" s="43"/>
-      <c r="E439" s="50"/>
-      <c r="F439" s="15"/>
-      <c r="G439" s="42" t="str">
+      <c r="A439" s="40"/>
+      <c r="B439" s="20"/>
+      <c r="C439" s="13"/>
+      <c r="D439" s="39"/>
+      <c r="E439" s="9"/>
+      <c r="F439" s="20"/>
+      <c r="G439" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H439" s="43"/>
-      <c r="I439" s="50"/>
-      <c r="J439" s="12"/>
-      <c r="K439" s="15"/>
+      <c r="H439" s="39"/>
+      <c r="I439" s="9"/>
+      <c r="J439" s="11"/>
+      <c r="K439" s="20"/>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A440" s="40"/>
+      <c r="B440" s="20"/>
+      <c r="C440" s="13"/>
+      <c r="D440" s="39"/>
+      <c r="E440" s="9"/>
+      <c r="F440" s="20"/>
+      <c r="G440" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H440" s="39"/>
+      <c r="I440" s="9"/>
+      <c r="J440" s="11"/>
+      <c r="K440" s="20"/>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A441" s="41"/>
+      <c r="B441" s="15"/>
+      <c r="C441" s="42"/>
+      <c r="D441" s="43"/>
+      <c r="E441" s="50"/>
+      <c r="F441" s="15"/>
+      <c r="G441" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H441" s="43"/>
+      <c r="I441" s="50"/>
+      <c r="J441" s="12"/>
+      <c r="K441" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12853,7 +12918,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12949,6 +13014,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -12970,6 +13038,10 @@
       <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>465.97499999999997</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
